--- a/biology/Médecine/Pandémie_de_Covid-19_en_Guadeloupe/Pandémie_de_Covid-19_en_Guadeloupe.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_en_Guadeloupe/Pandémie_de_Covid-19_en_Guadeloupe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Guadeloupe</t>
+          <t>Pandémie_de_Covid-19_en_Guadeloupe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pandémie de Covid-19 a été confirmée comme s'étant propagée au département français d'outre-mer et à la région de la Guadeloupe le 12 mars 2020. Le 12 juin 2020, selon un décompte publié par l'Agence régionale de santé (ARS), le département compte 171 cas de la Covid-19, dont 14 en sont décédés et 157 en sont guéris[1].
-Le 1er avril 2020, un couvre-feu est instauré sur toute la Guadeloupe entre 20h et 5h du matin[2].
-Le 15 novembre 2021, le gouvernement annonce que le personnel soignant et les pompiers doivent être vaccinés pour le 31 décembre, ce qui entraine un appel à la grève générale par un collectif d'organisations syndicales et citoyennes[3].
-Le 20 décembre 2021, le taux d'incidence en Guadeloupe est de 53 pour 100 000 habitants[4].
-Le jeudi 23 décembre 2021, une centaine de personnes manifestant contre le pass sanitaire ont envahi l'hémicycle du Conseil régional de la Guadeloupe. Du mobilier a été détruit. Ces manifestants s'opposaient également à l'obligation vaccinale du personnel de santé et des pompiers[5],[6].
-A des questions d'ordre sanitaires, se mêlent des revendications sociales et politiques[7].
-A partir du vendredi 7 janvier 2022, l'état d'urgence sanitaire est déclarée sur l'île et le couvre-feu à 22h est instaurée pour trois semaines[8],[9]. Les rassemblements de plus de 6 personnes sont interdits[10]. Le couvre-feu pourrait être ramené à 20h, si l'île ne connait pas un recul des contaminations[11].
-Des syndicalistes opposés à l'obligation vaccinale ont assiégés le CHU de Guadeloupe et agressés le directeur de l'hôpital et ses deux adjoints[12],[13].
-Seuls 40 % des habitants de l'île ont reçus une première dose de vaccin et 80 % des lits de réanimation sont occupés en janvier 2022[14].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pandémie de Covid-19 a été confirmée comme s'étant propagée au département français d'outre-mer et à la région de la Guadeloupe le 12 mars 2020. Le 12 juin 2020, selon un décompte publié par l'Agence régionale de santé (ARS), le département compte 171 cas de la Covid-19, dont 14 en sont décédés et 157 en sont guéris.
+Le 1er avril 2020, un couvre-feu est instauré sur toute la Guadeloupe entre 20h et 5h du matin.
+Le 15 novembre 2021, le gouvernement annonce que le personnel soignant et les pompiers doivent être vaccinés pour le 31 décembre, ce qui entraine un appel à la grève générale par un collectif d'organisations syndicales et citoyennes.
+Le 20 décembre 2021, le taux d'incidence en Guadeloupe est de 53 pour 100 000 habitants.
+Le jeudi 23 décembre 2021, une centaine de personnes manifestant contre le pass sanitaire ont envahi l'hémicycle du Conseil régional de la Guadeloupe. Du mobilier a été détruit. Ces manifestants s'opposaient également à l'obligation vaccinale du personnel de santé et des pompiers,.
+A des questions d'ordre sanitaires, se mêlent des revendications sociales et politiques.
+A partir du vendredi 7 janvier 2022, l'état d'urgence sanitaire est déclarée sur l'île et le couvre-feu à 22h est instaurée pour trois semaines,. Les rassemblements de plus de 6 personnes sont interdits. Le couvre-feu pourrait être ramené à 20h, si l'île ne connait pas un recul des contaminations.
+Des syndicalistes opposés à l'obligation vaccinale ont assiégés le CHU de Guadeloupe et agressés le directeur de l'hôpital et ses deux adjoints,.
+Seuls 40 % des habitants de l'île ont reçus une première dose de vaccin et 80 % des lits de réanimation sont occupés en janvier 2022.
 Pour endiguer l'épidémie, les autorités rappellent les gestes barrières à respecter : porter un masque homologué en présence d'autres personnes, manger à distance les uns des autres, pour les fêtes, se retrouver en petits groupes et plutôt à l'extérieur, ne pas se serrer la main, se laver les mains le plus souvent possible, se frotter les mains avec du gel hydro-alcoolique, aérer les pièces climatisées le plus souvent possible.
 </t>
         </is>
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Guadeloupe</t>
+          <t>Pandémie_de_Covid-19_en_Guadeloupe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,6 +533,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
